--- a/data/income_statement/2digits/size/58_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/58_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>58-Publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>58-Publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,521 +841,591 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>225050.8048</v>
+        <v>250744.11718</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>270160.29796</v>
+        <v>296946.26436</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>291669.7740800001</v>
+        <v>315699.67477</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>297699.02748</v>
+        <v>323345.24495</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>308933.5965800001</v>
+        <v>344185.52629</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>333943.46181</v>
+        <v>366274.81202</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>341107.39482</v>
+        <v>397319.89043</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>373685.5301</v>
+        <v>432815.14765</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>369251.96702</v>
+        <v>435196.23576</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>767064.66998</v>
+        <v>840435.081</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>850335.0668100001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>975099.6198199999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>960753.91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>214645.56867</v>
+        <v>239162.50944</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>262007.7617</v>
+        <v>288190.19006</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>280454.28894</v>
+        <v>303071.41751</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>287708.77828</v>
+        <v>312836.04521</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>299328.87787</v>
+        <v>332418.91779</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>321703.66167</v>
+        <v>352018.09435</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>325856.97375</v>
+        <v>379128.29401</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>344139.4271099999</v>
+        <v>399978.72889</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>337851.03669</v>
+        <v>398823.41496</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>713301.41175</v>
+        <v>779540.6110499999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>798652.00555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>913859.01647</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>880611.847</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3702.04862</v>
+        <v>3805.80427</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>2956.36017</v>
+        <v>3285.08601</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4398.188590000001</v>
+        <v>4700.64951</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4836.259</v>
+        <v>4918.72631</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4796.324729999999</v>
+        <v>6121.900509999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>6770.09111</v>
+        <v>7704.262220000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>8507.949689999999</v>
+        <v>9437.016790000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>7871.905330000001</v>
+        <v>8788.899600000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>10964.67719</v>
+        <v>11946.31378</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>21846.29304</v>
+        <v>27534.4142</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>33926.21113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>39259.20453</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>37613.299</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>6703.18751</v>
+        <v>7775.80347</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>5196.17609</v>
+        <v>5470.98829</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6817.29655</v>
+        <v>7927.60775</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>5153.9902</v>
+        <v>5590.47343</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4808.39398</v>
+        <v>5644.70799</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>5469.70903</v>
+        <v>6552.455449999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6742.471380000001</v>
+        <v>8754.57963</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>21674.19766</v>
+        <v>24047.51916</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>20436.25314</v>
+        <v>24426.50702</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>31916.96519</v>
+        <v>33360.05575</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>17756.85013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>21981.39882</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>42528.764</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>12616.28503</v>
+        <v>15745.38774</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>12522.19767</v>
+        <v>14826.62579</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>14059.82709</v>
+        <v>15731.44746</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>16815.48991</v>
+        <v>19200.86643</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>17568.89098</v>
+        <v>21829.34172</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>23687.29154</v>
+        <v>26535.8924</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>20357.13999</v>
+        <v>26363.41903</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>18053.65752</v>
+        <v>23458.17428</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>18376.78555</v>
+        <v>23943.95171</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>54318.13351000001</v>
+        <v>61348.13173</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>45281.23925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>53762.06159</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>60228.422</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>11157.17313</v>
+        <v>13716.48965</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>10663.48879</v>
+        <v>12225.41085</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>12073.25496</v>
+        <v>13339.61954</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>13712.71507</v>
+        <v>15638.1007</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>14868.29733</v>
+        <v>18424.9296</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>20488.27051</v>
+        <v>22502.53789</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>16244.3601</v>
+        <v>20966.12609</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>14994.91446</v>
+        <v>19257.48926</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>16031.91073</v>
+        <v>20866.08174</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>40466.51522000001</v>
+        <v>47365.06170000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>36718.48897</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>45104.16229</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>53292.73</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1137.20572</v>
+        <v>1706.99191</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1791.39434</v>
+        <v>2528.57845</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1898.11818</v>
+        <v>2229.44941</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3050.40627</v>
+        <v>3505.8331</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2490.59572</v>
+        <v>3178.61719</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1997.50557</v>
+        <v>2827.9739</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3741.62817</v>
+        <v>5018.659439999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3004.6775</v>
+        <v>4048.53238</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2054.91164</v>
+        <v>2413.59977</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>13007.60967</v>
+        <v>13078.51407</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>8288.161310000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8371.177079999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4979.598</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>321.90618</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>67.31453999999999</v>
+        <v>72.63649000000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>88.45394999999999</v>
+        <v>162.37851</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>52.36857</v>
+        <v>56.93263</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>209.99793</v>
+        <v>225.79493</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1201.51546</v>
+        <v>1205.38061</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>371.15172</v>
+        <v>378.6335</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>54.06556</v>
+        <v>152.15264</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>289.96318</v>
+        <v>664.2701999999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>844.00862</v>
+        <v>904.5559599999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>274.58897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>286.72222</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1956.094</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>212434.51977</v>
+        <v>234998.72944</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>257638.10029</v>
+        <v>282119.63857</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>277609.94699</v>
+        <v>299968.22731</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>280883.53757</v>
+        <v>304144.37852</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>291364.7056</v>
+        <v>322356.18457</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>310256.17027</v>
+        <v>339738.91962</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>320750.25483</v>
+        <v>370956.4714</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>355631.87258</v>
+        <v>409356.97337</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>350875.18147</v>
+        <v>411252.28405</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>712746.5364700001</v>
+        <v>779086.94927</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>805053.82756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>921337.55823</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>900525.488</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>141219.86396</v>
+        <v>155274.26694</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>179199.69048</v>
+        <v>194266.10266</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>190916.96794</v>
+        <v>203873.76607</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>196115.82742</v>
+        <v>210241.47445</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>194048.16266</v>
+        <v>216721.03935</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>206739.60817</v>
+        <v>227403.52131</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>206765.48635</v>
+        <v>239401.7329</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>232246.09944</v>
+        <v>265076.03011</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>223471.94434</v>
+        <v>258101.06462</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>485304.07112</v>
+        <v>528063.21352</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>555731.84013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>632554.20976</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>588900.209</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>31269.26509</v>
+        <v>35680.34759</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>41328.58985</v>
+        <v>46143.46378</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>47651.97271</v>
+        <v>50288.14108</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>31111.70397</v>
+        <v>35730.93444999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>33167.19317</v>
+        <v>38561.262</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>33175.58425</v>
+        <v>38681.55523000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>37420.14253</v>
+        <v>47249.90613</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>38932.04122</v>
+        <v>48905.39783</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>31878.76267</v>
+        <v>40209.17658</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>72764.81770999999</v>
+        <v>78702.29274999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>97655.62226999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>110503.30214</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>91882.023</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>59411.78798</v>
+        <v>66464.0417</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>74916.56545000001</v>
+        <v>80984.23828000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>76515.32432</v>
+        <v>83574.98668999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>97586.36043</v>
+        <v>102206.38091</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>77640.56015</v>
+        <v>83761.37063999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>86067.88572000001</v>
+        <v>92629.87447</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>70710.15531</v>
+        <v>83599.18618999999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>93839.05407</v>
+        <v>105539.66148</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>92584.86895999999</v>
+        <v>106809.04062</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>240182.24068</v>
+        <v>263835.21393</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>259092.36034</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>304347.8786400001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>285548.788</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>49693.63504</v>
+        <v>52284.7018</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>62722.44774</v>
+        <v>66906.31315999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>66435.38097</v>
+        <v>69696.34836</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>67102.5601</v>
+        <v>71988.95617</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>82801.8627</v>
+        <v>89719.13790999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>83861.18195999999</v>
+        <v>92213.86838</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>97801.62002</v>
+        <v>107190.12479</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>98236.12828</v>
+        <v>109292.09077</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>97792.2043</v>
+        <v>109721.30808</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>170543.35048</v>
+        <v>183696.00959</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>197820.88925</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>216192.37844</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>207749.972</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>845.17585</v>
@@ -1469,109 +1440,124 @@
         <v>315.20292</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>438.54664</v>
+        <v>4679.2688</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3634.95624</v>
+        <v>3878.22323</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>833.56849</v>
+        <v>1362.51579</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1238.87587</v>
+        <v>1338.88003</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1216.10841</v>
+        <v>1361.53934</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1813.66225</v>
+        <v>1829.69725</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1162.96827</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1510.65054</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>3719.426</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>71214.65580999998</v>
+        <v>79724.46249999999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>78438.40981</v>
+        <v>87853.53591000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>86692.97904999999</v>
+        <v>96094.46123999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>84767.71014999998</v>
+        <v>93902.90407</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>97316.54294</v>
+        <v>105635.14522</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>103516.5621</v>
+        <v>112335.39831</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>113984.76848</v>
+        <v>131554.7385</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>123385.77314</v>
+        <v>144280.94326</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>127403.23713</v>
+        <v>153151.21943</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>227442.46535</v>
+        <v>251023.73575</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>249321.98743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>288783.34847</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>311625.279</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>64038.23312</v>
+        <v>71508.16924</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>66505.70913</v>
+        <v>76733.59987999999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>78862.40828</v>
+        <v>93340.03733000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>79366.00182999999</v>
+        <v>88389.29276000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>91854.0932</v>
+        <v>105290.65108</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>102470.41641</v>
+        <v>114247.84794</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>108802.49885</v>
+        <v>126355.28934</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>121578.60456</v>
+        <v>144432.8501</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>124725.61485</v>
+        <v>150466.5172</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>216991.04136</v>
+        <v>249187.00327</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>229693.82416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>270096.79753</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>254671.794</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>486.37505</v>
@@ -1580,13 +1566,13 @@
         <v>124.99135</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>635.47347</v>
+        <v>652.3400600000001</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>1099.92405</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>718.5772099999999</v>
+        <v>1385.3983</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>1641.71983</v>
@@ -1604,181 +1590,206 @@
         <v>1748.92816</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>901.86977</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>913.21477</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>891.603</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>11938.72699</v>
+        <v>13419.18872</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>11665.73941</v>
+        <v>13912.22254</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>12482.49188</v>
+        <v>14688.35521</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>13459.64895</v>
+        <v>16381.24075</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>14656.2933</v>
+        <v>17207.40602</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>15046.63305</v>
+        <v>17927.76852</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>16620.12375</v>
+        <v>19327.77115</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>19061.77006</v>
+        <v>22243.0342</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>20289.08177</v>
+        <v>25529.5733</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>42809.05323</v>
+        <v>48151.90304</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>40455.58171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>46397.53878</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>46973.596</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>51613.13108</v>
+        <v>57602.60547</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>54714.97837</v>
+        <v>62696.38599</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>65744.44293</v>
+        <v>77999.34206</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>64806.42883</v>
+        <v>70908.12796</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>76479.22269</v>
+        <v>86697.84676</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>85782.06353</v>
+        <v>94678.35959000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>91270.41137</v>
+        <v>106115.55446</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>101533.67234</v>
+        <v>121206.65374</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>103652.00597</v>
+        <v>124152.41679</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>172433.05997</v>
+        <v>199286.17207</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>188336.37268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>222786.04398</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>206806.595</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>7176.42269</v>
+        <v>8216.29326</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>11932.70068</v>
+        <v>11119.93603</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>7830.570769999999</v>
+        <v>2754.42391</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5401.708320000001</v>
+        <v>5513.611309999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5462.44974</v>
+        <v>344.4941399999997</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1046.14569</v>
+        <v>-1912.44963</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>5182.26963</v>
+        <v>5199.449159999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1807.16858</v>
+        <v>-151.9068399999998</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2677.62228</v>
+        <v>2684.70223</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>10451.42399</v>
+        <v>1836.732479999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>19628.16327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18686.55094</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>56953.485</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2581.95766</v>
+        <v>295031.94869</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2587.16897</v>
+        <v>294857.97817</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3055.75658</v>
+        <v>295311.8803</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1955.22658</v>
+        <v>313990.77201</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2108.67077</v>
+        <v>313942.36087</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2773.70108</v>
+        <v>23068.66821</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3382.12973</v>
+        <v>30202.13506</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2963.2235</v>
+        <v>322761.61238</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4792.226369999999</v>
+        <v>27768.80679</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>14554.411</v>
+        <v>345743.22564</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>18096.51617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>340795.58084</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>377242.88</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>26.07611</v>
+        <v>60.55211</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>26.81937</v>
+        <v>27.03066</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>38.26649</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>23.76046</v>
+        <v>36.97107</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>49.50504</v>
@@ -1793,7 +1804,7 @@
         <v>1.7059</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0.77576</v>
+        <v>1.62909</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>8.69684</v>
@@ -1801,20 +1812,25 @@
       <c r="M26" s="48" t="n">
         <v>296.09029</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>588.8680000000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>28.14649</v>
+        <v>32.10472</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>13.59164</v>
+        <v>16.76612</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>49.37727</v>
+        <v>50.35196</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>20.29102</v>
@@ -1840,77 +1856,87 @@
       <c r="M27" s="48" t="n">
         <v>26.21506</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>37.373</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>619.5811699999999</v>
+        <v>1292.24742</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>631.73042</v>
+        <v>1442.48752</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>671.2869499999999</v>
+        <v>1063.31149</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>517.63625</v>
+        <v>1181.92079</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>415.64022</v>
+        <v>1266.29161</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>600.04305</v>
+        <v>617.05885</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>462.26227</v>
+        <v>930.50267</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>440.32394</v>
+        <v>1089.23322</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>471.97419</v>
+        <v>905.8072</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2676.33169</v>
+        <v>3853.84887</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2690.28806</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>5562.49521</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>4328.998</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>287.03393</v>
+        <v>289.92257</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>343.41235</v>
+        <v>343.53599</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>156.66298</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>41.02125</v>
+        <v>42.06117</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>55.91237</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>77.95141000000001</v>
+        <v>78.00091</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>20.2841</v>
+        <v>740.62308</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>23.54452</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>26.07663</v>
+        <v>26.10058</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>12.37638</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>351.5675</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>155.195</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>230.01795</v>
+        <v>290661.1108</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>161.062</v>
+        <v>290666.0837200001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>33.04669000000001</v>
+        <v>290496.26188</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>173.04745</v>
+        <v>310114.25813</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>138.95401</v>
+        <v>309956.45395</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>116.97069</v>
+        <v>19572.3293</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>11.78703</v>
+        <v>20366.58493</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0.64125</v>
+        <v>309955.08269</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>38.64011</v>
+        <v>19609.28217</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>191.33784</v>
+        <v>310094.21418</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>329.97798</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>310192.64762</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>312961.456</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>42.43233</v>
+        <v>191.83977</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>27.01308</v>
+        <v>118.30043</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>37.38491</v>
+        <v>40.43859</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>96.28364000000001</v>
+        <v>113.41235</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>52.30009</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>42.18644999999999</v>
+        <v>47.01275</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>38.19401</v>
+        <v>47.47646</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>29.07793</v>
+        <v>1067.84199</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>7.87377</v>
+        <v>223.00772</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>388.13822</v>
+        <v>445.55453</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>447.90827</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1126.8591</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2073.357</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>501.3227</v>
+        <v>1483.93192</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>508.94263</v>
+        <v>842.7387799999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>429.57794</v>
+        <v>1001.38169</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>315.2241100000001</v>
+        <v>767.77585</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>406.61452</v>
+        <v>1238.59185</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>570.30863</v>
+        <v>905.1092</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1359.57244</v>
+        <v>6238.87333</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1726.25138</v>
+        <v>8446.497029999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2906.74443</v>
+        <v>4040.95997</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>7209.80242</v>
+        <v>27092.36479</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2455.24521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9466.732239999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>51218.033</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>9.281319999999999</v>
@@ -2048,10 +2094,10 @@
         <v>11.18941</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>7.23609</v>
+        <v>20.85273</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>48.26919</v>
+        <v>48.87662</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>42.84188</v>
@@ -2060,10 +2106,10 @@
         <v>0.95339</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0.04602000000000001</v>
+        <v>0.06842000000000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>8.728159999999999</v>
+        <v>9.585120000000002</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>9.176159999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0.04107</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2096,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>302.33862</v>
+        <v>302.48862</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0</v>
@@ -2113,170 +2164,195 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>838.06566</v>
+        <v>1010.95806</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>863.1910800000001</v>
+        <v>1389.62855</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1574.75886</v>
+        <v>2386.19409</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>716.6932099999999</v>
+        <v>1662.20501</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>946.9026399999999</v>
+        <v>1280.46408</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1018.89381</v>
+        <v>1501.66016</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1455.88315</v>
+        <v>1843.90546</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>701.7528300000001</v>
+        <v>2136.92432</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1323.91437</v>
+        <v>2945.79295</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4060.18762</v>
+        <v>4228.63006</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11499.18273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>13772.93275</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>5879.552</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1532.12859</v>
+        <v>2405.56321</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2024.27</v>
+        <v>2785.49181</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1707.64553</v>
+        <v>2501.15222</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1717.03047</v>
+        <v>2103.82468</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2450.14934</v>
+        <v>3290.31436</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1586.25771</v>
+        <v>55156.04891</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4192.5752</v>
+        <v>7340.331730000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2399.17118</v>
+        <v>6054.84881</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3713.52818</v>
+        <v>4747.00234</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>8795.095300000001</v>
+        <v>44430.45933999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>12911.8147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>25290.93095</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>59940.952</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>58.00558</v>
+        <v>64.31623999999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>153.45595</v>
+        <v>165.54442</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>226.75072</v>
+        <v>239.67808</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>296.54246</v>
+        <v>298.29082</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>187.35397</v>
+        <v>219.03338</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>335.09632</v>
+        <v>338.93159</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2556.8766</v>
+        <v>3277.69225</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>311.0601600000001</v>
+        <v>320.06416</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>36.68875999999999</v>
+        <v>40.047</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>352.28824</v>
+        <v>382.78824</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>322.9338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>336.28418</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1025.237</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>228.53028</v>
+        <v>445.70831</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>543.32623</v>
+        <v>757.90629</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>616.00645</v>
+        <v>827.07203</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>687.2766899999999</v>
+        <v>774.2455</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1499.61582</v>
+        <v>1541.84204</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>285.42756</v>
+        <v>381.08778</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>110.30005</v>
+        <v>172.02868</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>259.911</v>
+        <v>484.11628</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>247.30808</v>
+        <v>414.13927</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>167.76922</v>
+        <v>19037.57742</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1311.22695</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4888.88241</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>705.675</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>20.39179</v>
+        <v>47.79859</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0</v>
@@ -2291,7 +2367,7 @@
         <v>0.54511</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>2.50545</v>
+        <v>4255.30366</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>0</v>
@@ -2303,55 +2379,65 @@
         <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>41.0926</v>
+        <v>219.6961</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>15.45086</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>15.8817</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>158.709</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>575.6955400000001</v>
+        <v>1139.17383</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>393.3512900000001</v>
+        <v>658.8016700000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>564.05715</v>
+        <v>1059.38081</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>341.87737</v>
+        <v>629.7739499999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>617.05317</v>
+        <v>1201.04055</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>612.19739</v>
+        <v>1293.67738</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1352.36826</v>
+        <v>3210.72004</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1683.09927</v>
+        <v>4959.25194</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2838.98687</v>
+        <v>3607.16067</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>7153.80292</v>
+        <v>23579.63629</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1602.90575</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9883.656580000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>50443.123</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2360,7 +2446,7 @@
         <v>4.514690000000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>0.33817</v>
+        <v>8.252829999999999</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>0</v>
@@ -2372,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0</v>
+        <v>0.38512</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>0.0224</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>4.38094</v>
+        <v>4.85278</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>53.5853</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>40.59455000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.005</v>
+        <v>9.327030000000001</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>5.10891</v>
@@ -2425,257 +2516,292 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>649.5003999999999</v>
+        <v>699.23921</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>924.5129300000001</v>
+        <v>1193.61583</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>300.21318</v>
+        <v>366.48861</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>361.07921</v>
+        <v>371.25967</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>138.77216</v>
+        <v>321.04417</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>351.03099</v>
+        <v>48887.0485</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>173.03029</v>
+        <v>679.50564</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>144.90058</v>
+        <v>291.19386</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>586.16353</v>
+        <v>680.80262</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1026.55702</v>
+        <v>1157.17599</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9618.702789999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>10125.63153</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>7608.208</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1520.22387</v>
+        <v>7224.05016</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1228.83294</v>
+        <v>2341.39259</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1477.97467</v>
+        <v>2872.77161</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1802.21589</v>
+        <v>3508.55245</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1545.38514</v>
+        <v>5975.83904</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1508.04326</v>
+        <v>2825.997139999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1858.95414</v>
+        <v>3111.60542</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1731.22358</v>
+        <v>18388.98827</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1895.00873</v>
+        <v>25859.46265</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7912.68595</v>
+        <v>26932.04436</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7669.90011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>18302.28753</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>14254.727</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1513.27619</v>
+        <v>7217.10248</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1169.65462</v>
+        <v>2280.45835</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1451.87387</v>
+        <v>2763.028940000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1700.40723</v>
+        <v>3356.79889</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1467.19996</v>
+        <v>5897.65386</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1460.44546</v>
+        <v>2681.94769</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1822.71408</v>
+        <v>2991.4913</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1708.41242</v>
+        <v>18281.91515</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1851.02467</v>
+        <v>25683.32697</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>7600.47945</v>
+        <v>26399.10157</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>7488.30799</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>16999.80695</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>13889.595</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>6.94768</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>59.17832</v>
+        <v>60.93424</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>26.1008</v>
+        <v>109.74267</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>101.80866</v>
+        <v>151.75356</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>78.18517999999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>47.5978</v>
+        <v>144.04945</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>36.24006</v>
+        <v>120.11412</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>22.81116</v>
+        <v>107.07312</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>43.98406</v>
+        <v>176.13568</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>312.2065</v>
+        <v>532.9427900000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>181.59212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1302.48058</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>365.132</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>6706.027889999999</v>
+        <v>293618.62858</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>11266.76671</v>
+        <v>300851.0298</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>7700.70715</v>
+        <v>292692.38038</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3837.68854</v>
+        <v>313892.00619</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3575.58603</v>
+        <v>305020.70161</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>725.5457999999998</v>
+        <v>-36825.82747</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2512.87002</v>
+        <v>24949.64707</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>639.9973199999998</v>
+        <v>298165.86846</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1861.31174</v>
+        <v>-152.9559700000007</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>8298.053740000001</v>
+        <v>276217.45442</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>17142.96463</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>315888.9133</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>360000.686</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1918.86646</v>
+        <v>3443.38966</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1172.61267</v>
+        <v>1966.71335</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1716.99095</v>
+        <v>3058.29962</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3907.99947</v>
+        <v>4067.56669</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2182.41896</v>
+        <v>14500.40927</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2841.46816</v>
+        <v>3868.63468</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3739.09733</v>
+        <v>25511.92226</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3235.45633</v>
+        <v>7352.172010000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>3304.52866</v>
+        <v>36339.59986</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>5260.291399999999</v>
+        <v>6410.08328</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6169.480459999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>7974.80343</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>16659.972</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>196.82098</v>
+        <v>214.6035</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>253.5146</v>
+        <v>254.60763</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>310.56633</v>
+        <v>375.18969</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>361.40466</v>
+        <v>370.95551</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>184.56015</v>
@@ -2684,10 +2810,10 @@
         <v>457.94136</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>350.3112</v>
+        <v>351.66713</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>416.57643</v>
+        <v>416.84891</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>249.90533</v>
@@ -2696,97 +2822,112 @@
         <v>335.49053</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>442.33639</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>458.9943000000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>468.054</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1722.04548</v>
+        <v>3228.78616</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>919.0980699999999</v>
+        <v>1712.10572</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1406.42462</v>
+        <v>2683.10993</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3546.59481</v>
+        <v>3696.61118</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1997.85881</v>
+        <v>14315.84912</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2383.5268</v>
+        <v>3410.69332</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3388.78613</v>
+        <v>25160.25513</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2818.8799</v>
+        <v>6935.323100000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3054.62333</v>
+        <v>36089.69453</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4924.800869999999</v>
+        <v>6074.59275</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>5727.14407</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>7515.809130000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>16191.918</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2009.57624</v>
+        <v>2237.33626</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2008.57143</v>
+        <v>2167.980610000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>29480.08683</v>
+        <v>33061.38754</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1725.87171</v>
+        <v>2967.61235</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2250.63367</v>
+        <v>3681.79601</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>13481.68113</v>
+        <v>15194.03789</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2701.6318</v>
+        <v>7150.25873</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>17251.31017</v>
+        <v>22620.23317</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>15817.95848</v>
+        <v>18319.70951</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>17522.48263</v>
+        <v>23961.95299</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5364.01496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>6889.986730000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>17289.918</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>25.60774</v>
+        <v>44.59742</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>8.42356</v>
+        <v>10.71716</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>104.60103</v>
@@ -2804,214 +2945,242 @@
         <v>229.41471</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>100.94769</v>
+        <v>101.04269</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>19.37594</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4.63948</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>181.36724</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>223.018</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>97.22654</v>
+        <v>122.894</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>465.27672</v>
+        <v>468.56393</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>117.35041</v>
+        <v>119.41585</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>233.06127</v>
+        <v>235.23433</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>442.64111</v>
+        <v>452.41539</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>184.15313</v>
+        <v>192.18631</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>262.02452</v>
+        <v>1750.4634</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>502.69779</v>
+        <v>511.44168</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>190.9706</v>
+        <v>219.83917</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>195.95728</v>
+        <v>438.91307</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>553.0402800000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>590.1702999999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>261.882</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1886.74196</v>
+        <v>2069.84484</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1534.87115</v>
+        <v>1688.69952</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>29258.13539</v>
+        <v>32837.37066</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1380.14774</v>
+        <v>2619.71532</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1696.84995</v>
+        <v>3118.23801</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>13074.19618</v>
+        <v>14778.51976</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2210.19257</v>
+        <v>5170.38062</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>16746.36238</v>
+        <v>22104.29149</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>15526.04019</v>
+        <v>17998.82765</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>17307.14941</v>
+        <v>23503.66398</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4806.3352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>6118.449189999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>16805.018</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6615.31811</v>
+        <v>294824.6819799999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>10430.80795</v>
+        <v>300649.76254</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-20062.38873</v>
+        <v>262689.29246</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6019.8163</v>
+        <v>314991.96053</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3507.37132</v>
+        <v>315839.31487</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-9914.667170000001</v>
+        <v>-48151.23068</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3550.33555</v>
+        <v>43311.3106</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-13375.85652</v>
+        <v>282897.8072999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-10652.11808</v>
+        <v>17866.93438</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-3964.13749</v>
+        <v>258665.58471</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>17948.43013</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>316973.73</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>359370.74</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2491.584150000001</v>
+        <v>3106.74284</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3462.98668</v>
+        <v>4103.632659999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3503.47509</v>
+        <v>4191.23653</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2875.51378</v>
+        <v>3546.71519</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3253.84664</v>
+        <v>3948.7876</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>3701.91118</v>
+        <v>4017.85412</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4172.640280000001</v>
+        <v>6493.627820000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4170.55574</v>
+        <v>6177.87389</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4196.86177</v>
+        <v>5595.336969999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>10092.77563</v>
+        <v>11033.0469</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>11356.10714</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>13556.69476</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>25063.629</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4123.73396</v>
+        <v>291717.93914</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>6967.821269999999</v>
+        <v>296546.12988</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-23565.86382</v>
+        <v>258498.05593</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3144.302520000001</v>
+        <v>311445.24534</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>253.5246800000002</v>
+        <v>311890.52727</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-13616.57835</v>
+        <v>-52169.0848</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-622.3047299999999</v>
+        <v>36817.68278</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-17546.41226</v>
+        <v>276719.93341</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-14848.97985</v>
+        <v>12271.59741</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-14056.91312</v>
+        <v>247632.53781</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>6592.32299</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>303417.03524</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>334307.111</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1311</v>
+        <v>1384</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1345</v>
+        <v>1422</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1375</v>
+        <v>1452</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1322</v>
+        <v>1406</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1393</v>
+        <v>1498</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1439</v>
+        <v>1543</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1450</v>
+        <v>1586</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1486</v>
+        <v>1650</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1531</v>
+        <v>1692</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1722</v>
+        <v>1842</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1950</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>